--- a/06_look-back/75_開発体験シート.xlsx
+++ b/06_look-back/75_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA6387-BD64-4790-B3AB-799AB11AF8EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386A610-7054-4868-A0BE-5B2AEA5AC779}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="60" windowWidth="20280" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>－</t>
   </si>
 </sst>
 </file>
@@ -1729,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,7 +1790,9 @@
       <c r="F9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1808,7 +1813,9 @@
       <c r="F10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1829,10 +1836,12 @@
       <c r="F11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -1852,10 +1861,12 @@
       <c r="F12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I12" s="9"/>
     </row>
@@ -1873,7 +1884,9 @@
       <c r="F13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -1913,10 +1926,12 @@
       <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I15" s="12"/>
     </row>
@@ -1934,10 +1949,12 @@
       <c r="F16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -1974,7 +1991,9 @@
       <c r="F18" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1993,7 +2012,9 @@
       <c r="F19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2016,7 +2037,9 @@
       <c r="F20" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2035,7 +2058,9 @@
       <c r="F21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2056,7 +2081,9 @@
       <c r="F22" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2075,10 +2102,12 @@
       <c r="F23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -2096,7 +2125,9 @@
       <c r="F24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2115,7 +2146,9 @@
       <c r="F25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2138,7 +2171,9 @@
       <c r="F26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2157,7 +2192,9 @@
       <c r="F27" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2176,7 +2213,9 @@
       <c r="F28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2199,7 +2238,9 @@
       <c r="F29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2218,7 +2259,9 @@
       <c r="F30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2237,7 +2280,9 @@
       <c r="F31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2258,7 +2303,9 @@
       <c r="F32" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2277,7 +2324,9 @@
       <c r="F33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2296,7 +2345,9 @@
       <c r="F34" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2317,7 +2368,9 @@
       <c r="F35" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2558,18 +2611,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2591,18 +2644,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/06_look-back/75_開発体験シート.xlsx
+++ b/06_look-back/75_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386A610-7054-4868-A0BE-5B2AEA5AC779}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B029E3-5719-4DB7-8287-B26A6266013A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -1735,7 +1735,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2389,7 +2389,9 @@
       <c r="F36" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2408,7 +2410,9 @@
       <c r="F37" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
